--- a/Processed Data/encoded_room_data.xlsx
+++ b/Processed Data/encoded_room_data.xlsx
@@ -1,37 +1,537 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s1941220_ed_ac_uk/Documents/Year 5/SEM2/Topics in Applied OR/taor_project/taor_project/Processed Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_3A71758B5B90D543FF5B2611595ED87656CFDFD2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D596D2A7-F9F7-4C40-B307-98B66CE435B2}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="163">
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>room_name</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>ownership</t>
+  </si>
+  <si>
+    <t>gt_or_ts</t>
+  </si>
+  <si>
+    <t>school_priority</t>
+  </si>
+  <si>
+    <t>room_layout</t>
+  </si>
+  <si>
+    <t>furniture_config</t>
+  </si>
+  <si>
+    <t>control_system</t>
+  </si>
+  <si>
+    <t>desktop</t>
+  </si>
+  <si>
+    <t>induction_system</t>
+  </si>
+  <si>
+    <t>lec_recording</t>
+  </si>
+  <si>
+    <t>microphone</t>
+  </si>
+  <si>
+    <t>pres_facilities</t>
+  </si>
+  <si>
+    <t>sound_system</t>
+  </si>
+  <si>
+    <t>wall_mounted_writing</t>
+  </si>
+  <si>
+    <t>furniture_flex_seating</t>
+  </si>
+  <si>
+    <t>furniture_retract_seating</t>
+  </si>
+  <si>
+    <t>furniture_tables_chairs</t>
+  </si>
+  <si>
+    <t>layout_boardroom</t>
+  </si>
+  <si>
+    <t>layout_classroom</t>
+  </si>
+  <si>
+    <t>layout_comp_lab</t>
+  </si>
+  <si>
+    <t>layout_theatre</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>centrally_allocated</t>
+  </si>
+  <si>
+    <t>locally_allocated</t>
+  </si>
+  <si>
+    <t>priority_EFI</t>
+  </si>
+  <si>
+    <t>priority_Law</t>
+  </si>
+  <si>
+    <t>priority_MolGenProp</t>
+  </si>
+  <si>
+    <t>priority_SPS</t>
+  </si>
+  <si>
+    <t>priority_bio</t>
+  </si>
+  <si>
+    <t>priority_chem</t>
+  </si>
+  <si>
+    <t>priority_eng</t>
+  </si>
+  <si>
+    <t>priority_geo</t>
+  </si>
+  <si>
+    <t>priority_maths</t>
+  </si>
+  <si>
+    <t>priority_maths_phys</t>
+  </si>
+  <si>
+    <t>priority_no priority</t>
+  </si>
+  <si>
+    <t>priority_phys</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>Alrick</t>
+  </si>
+  <si>
+    <t>ALR_Classroom 10</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>classroom</t>
+  </si>
+  <si>
+    <t>tables_chairs</t>
+  </si>
+  <si>
+    <t>Ashworth</t>
+  </si>
+  <si>
+    <t>ASH_Honours Room 1</t>
+  </si>
+  <si>
+    <t>bio</t>
+  </si>
+  <si>
+    <t>flex_seating</t>
+  </si>
+  <si>
+    <t>ASH_Honours Room 2</t>
+  </si>
+  <si>
+    <t>ASH_Lecture Theatre 1</t>
+  </si>
+  <si>
+    <t>theatre</t>
+  </si>
+  <si>
+    <t>ASH_Lecture Theatre 3</t>
+  </si>
+  <si>
+    <t>Daniel Rutherford Building</t>
+  </si>
+  <si>
+    <t>DRB_G.27 Lecture Theatre 1</t>
+  </si>
+  <si>
+    <t>Eng Sanderson Building</t>
+  </si>
+  <si>
+    <t>ESB_Lecture Theatre No. 1</t>
+  </si>
+  <si>
+    <t>Grant Institute</t>
+  </si>
+  <si>
+    <t>GRA_Lecture Theatre 201</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>GRA_Room 304B</t>
+  </si>
+  <si>
+    <t>Hudson Beare Building</t>
+  </si>
+  <si>
+    <t>HBB_Classroom 4</t>
+  </si>
+  <si>
+    <t>HBB_Lecture Theatre 2</t>
+  </si>
+  <si>
+    <t>Joseph Black Building</t>
+  </si>
+  <si>
+    <t>JBB_G.69</t>
+  </si>
+  <si>
+    <t>chem</t>
+  </si>
+  <si>
+    <t>JBB_Theatre 100</t>
+  </si>
+  <si>
+    <t>JBB_Theatre 250</t>
+  </si>
+  <si>
+    <t>JBB_Theatre 40</t>
+  </si>
+  <si>
+    <t>JCMB</t>
+  </si>
+  <si>
+    <t>JCMB_1206c - Teaching Studio</t>
+  </si>
+  <si>
+    <t>no priority</t>
+  </si>
+  <si>
+    <t>JCMB_1501</t>
+  </si>
+  <si>
+    <t>maths</t>
+  </si>
+  <si>
+    <t>JCMB_2901</t>
+  </si>
+  <si>
+    <t>maths_phys</t>
+  </si>
+  <si>
+    <t>boardroom</t>
+  </si>
+  <si>
+    <t>JCMB_3211 - Teaching Studio</t>
+  </si>
+  <si>
+    <t>JCMB_3212 - Teaching Studio</t>
+  </si>
+  <si>
+    <t>JCMB_3217 - Teaching Studio</t>
+  </si>
+  <si>
+    <t>JCMB_4312</t>
+  </si>
+  <si>
+    <t>JCMB_4325A</t>
+  </si>
+  <si>
+    <t>JCMB_4325B</t>
+  </si>
+  <si>
+    <t>JCMB_4325C - Teaching Studio</t>
+  </si>
+  <si>
+    <t>phys</t>
+  </si>
+  <si>
+    <t>JCMB_5326</t>
+  </si>
+  <si>
+    <t>JCMB_5327</t>
+  </si>
+  <si>
+    <t>JCMB_5328</t>
+  </si>
+  <si>
+    <t>JCMB_6201</t>
+  </si>
+  <si>
+    <t>JCMB_6206</t>
+  </si>
+  <si>
+    <t>JCMB_6301</t>
+  </si>
+  <si>
+    <t>JCMB_Lecture Theatre A</t>
+  </si>
+  <si>
+    <t>JCMB_Lecture Theatre B</t>
+  </si>
+  <si>
+    <t>JCMB_Lecture Theatre C</t>
+  </si>
+  <si>
+    <t>Murchison House</t>
+  </si>
+  <si>
+    <t>MH_1.19</t>
+  </si>
+  <si>
+    <t>MH_G.04</t>
+  </si>
+  <si>
+    <t>MH_G.05</t>
+  </si>
+  <si>
+    <t>MH_G.07 - Teaching Studio</t>
+  </si>
+  <si>
+    <t>MH_G.09 - Teaching Studio</t>
+  </si>
+  <si>
+    <t>MH_G.10</t>
+  </si>
+  <si>
+    <t>MH_G.12</t>
+  </si>
+  <si>
+    <t>MH_G.13</t>
+  </si>
+  <si>
+    <t>MH_G.30</t>
+  </si>
+  <si>
+    <t>MH_G.31</t>
+  </si>
+  <si>
+    <t>MH_G.32</t>
+  </si>
+  <si>
+    <t>MH_G.33</t>
+  </si>
+  <si>
+    <t>MH_G.34</t>
+  </si>
+  <si>
+    <t>MH_Lecture Theatre G.26</t>
+  </si>
+  <si>
+    <t>Nucleus</t>
+  </si>
+  <si>
+    <t>NUC_1.14 - Oak Lecture Theatre</t>
+  </si>
+  <si>
+    <t>NUC_1.15 - Larch Lecture Theatre</t>
+  </si>
+  <si>
+    <t>NUC_2.03 - Hawthorn Teaching Studio</t>
+  </si>
+  <si>
+    <t>NUC_2.06 - Rowan</t>
+  </si>
+  <si>
+    <t>NUC_2.07 - Yew Lecture Theatre</t>
+  </si>
+  <si>
+    <t>retract_seating</t>
+  </si>
+  <si>
+    <t>NUC_B.01 - Alder Lecture Theatre</t>
+  </si>
+  <si>
+    <t>NUC_G.02 - Elm Lecture Theatre</t>
+  </si>
+  <si>
+    <t>Swann Building</t>
+  </si>
+  <si>
+    <t>SB_7.15</t>
+  </si>
+  <si>
+    <t>SB_7.20</t>
+  </si>
+  <si>
+    <t>SB_Main Lecture Theatre</t>
+  </si>
+  <si>
+    <t>JCMB_5205</t>
+  </si>
+  <si>
+    <t>JCMB_1512</t>
+  </si>
+  <si>
+    <t>comp_lab</t>
+  </si>
+  <si>
+    <t>JCMB_3210</t>
+  </si>
+  <si>
+    <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+  </si>
+  <si>
+    <t>MH_LG.12 - Open Access Computer Lab</t>
+  </si>
+  <si>
+    <t>MH_LG.01 - Open Access Computer Lab</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>Gordon Aikman Lecture Theatre</t>
+  </si>
+  <si>
+    <t>GALT_ Gordon Aikman Lecture Theatre</t>
+  </si>
+  <si>
+    <t>Appleton Tower</t>
+  </si>
+  <si>
+    <t>AT_M2 - Teaching Studio</t>
+  </si>
+  <si>
+    <t>AT_2.05</t>
+  </si>
+  <si>
+    <t>AT_2.07</t>
+  </si>
+  <si>
+    <t>AT_2.11</t>
+  </si>
+  <si>
+    <t>AT_2.12</t>
+  </si>
+  <si>
+    <t>AT_Lecture Theatre 2</t>
+  </si>
+  <si>
+    <t>AT_Lecture Theatre 3</t>
+  </si>
+  <si>
+    <t>AT_Lecture Theatre 5</t>
+  </si>
+  <si>
+    <t>40 George Square</t>
+  </si>
+  <si>
+    <t>40GS_LG.07 - Teaching Studio</t>
+  </si>
+  <si>
+    <t>40GS_Lecture Theatre B</t>
+  </si>
+  <si>
+    <t>40GS_Lecture Theatre C</t>
+  </si>
+  <si>
+    <t>40GS_13.07</t>
+  </si>
+  <si>
+    <t>40GS_LG.09</t>
+  </si>
+  <si>
+    <t>40GS_LG.11</t>
+  </si>
+  <si>
+    <t>MolGenProp</t>
+  </si>
+  <si>
+    <t>Chrystal MacMillan Building</t>
+  </si>
+  <si>
+    <t>CMB_Seminar Room 5</t>
+  </si>
+  <si>
+    <t>SPS</t>
+  </si>
+  <si>
+    <t>CMB_Seminar Room 6</t>
+  </si>
+  <si>
+    <t>Old College</t>
+  </si>
+  <si>
+    <t>OC_Usha Kasera Lecture Theatre</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Lister Learning and Teaching Centre</t>
+  </si>
+  <si>
+    <t>LLTC_2.14 - Teaching Studio</t>
+  </si>
+  <si>
+    <t>EFI</t>
+  </si>
+  <si>
+    <t>Robson Building</t>
+  </si>
+  <si>
+    <t>ROB_Hugh Robson Building Computer Lab - 129 cap</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +546,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,264 +870,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>campus</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>building</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>room_name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>capacity</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ownership</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>gt_or_ts</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>school_priority</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>room_layout</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>furniture_config</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>control_system</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>desktop</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>induction_system</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>lec_recording</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>microphone</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>pres_facilities</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>sound_system</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>wall_mounted_writing</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>furniture_flex_seating</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>furniture_retract_seating</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>furniture_tables_chairs</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>layout_boardroom</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>layout_classroom</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>layout_comp_lab</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>layout_theatre</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>locally_allocated</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>priority_EFI</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>priority_Law</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>priority_MolGenProp</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>priority_SPS</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>priority_bio</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>priority_chem</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>priority_eng</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>priority_geo</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>priority_maths</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>priority_maths_phys</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>priority_no priority</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>priority_phys</t>
-        </is>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Alrick</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ALR_Classroom 10</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2">
         <v>86</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>eng</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -773,49 +1121,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ashworth</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ASH_Honours Room 1</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3">
         <v>35</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>bio</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>flex_seating</t>
-        </is>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -911,49 +1243,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ashworth</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ASH_Honours Room 2</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
         <v>33</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>bio</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>flex_seating</t>
-        </is>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -1049,46 +1365,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ashworth</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ASH_Lecture Theatre 1</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5">
         <v>313</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>bio</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
@@ -1183,46 +1484,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ashworth</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ASH_Lecture Theatre 3</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
         <v>88</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>bio</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
@@ -1317,46 +1603,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Daniel Rutherford Building</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DRB_G.27 Lecture Theatre 1</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7">
         <v>164</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>bio</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
@@ -1451,46 +1722,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Eng Sanderson Building</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ESB_Lecture Theatre No. 1</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8">
         <v>200</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>eng</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -1585,46 +1841,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Grant Institute</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>GRA_Lecture Theatre 201</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9">
         <v>135</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>geo</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
@@ -1719,49 +1960,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Grant Institute</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>GRA_Room 304B</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10">
         <v>40</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>geo</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>flex_seating</t>
-        </is>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -1857,49 +2082,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Hudson Beare Building</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>HBB_Classroom 4</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11">
         <v>54</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>eng</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -1995,46 +2204,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Hudson Beare Building</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>HBB_Lecture Theatre 2</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12">
         <v>195</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>eng</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
@@ -2129,49 +2323,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Joseph Black Building</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>JBB_G.69</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13">
         <v>25</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>chem</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -2267,46 +2445,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Joseph Black Building</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>JBB_Theatre 100</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14">
         <v>94</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>chem</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
@@ -2401,46 +2564,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Joseph Black Building</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>JBB_Theatre 250</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15">
         <v>230</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>chem</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
@@ -2535,49 +2683,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Joseph Black Building</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>JBB_Theatre 40</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16">
         <v>36</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>chem</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -2673,46 +2805,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>JCMB_1206c - Teaching Studio</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17">
         <v>72</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -2807,49 +2924,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>JCMB_1501</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18">
         <v>62</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>maths</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -2945,49 +3046,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>JCMB_2901</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19">
         <v>14</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>maths_phys</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>boardroom</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -3083,46 +3168,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>JCMB_3211 - Teaching Studio</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20">
         <v>24</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
@@ -3217,46 +3287,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>JCMB_3212 - Teaching Studio</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21">
         <v>24</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -3351,46 +3406,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>JCMB_3217 - Teaching Studio</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22">
         <v>84</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
@@ -3485,49 +3525,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>JCMB_4312</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23">
         <v>30</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -3623,49 +3647,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>JCMB_4325A</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24">
         <v>50</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>flex_seating</t>
-        </is>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -3761,49 +3769,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>JCMB_4325B</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>bio</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>flex_seating</t>
-        </is>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -3899,46 +3891,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>JCMB_4325C - Teaching Studio</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26">
         <v>48</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>phys</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
       <c r="J26" t="b">
         <v>1</v>
       </c>
@@ -4033,49 +4010,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>JCMB_5326</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27">
         <v>42</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>maths_phys</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" t="s">
+        <v>44</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -4171,49 +4132,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>JCMB_5327</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28">
         <v>50</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>maths_phys</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>44</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -4309,49 +4254,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>JCMB_5328</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29">
         <v>50</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>maths_phys</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s">
+        <v>44</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
@@ -4447,46 +4376,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>JCMB_6201</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30">
         <v>38</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>geo</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" t="s">
+        <v>51</v>
+      </c>
       <c r="J30" t="b">
         <v>1</v>
       </c>
@@ -4581,46 +4495,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>JCMB_6206</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31">
         <v>52</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>maths_phys</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
+        <v>51</v>
+      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
@@ -4715,49 +4614,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>JCMB_6301</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32">
         <v>60</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>bio</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" t="s">
+        <v>44</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -4853,46 +4736,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>JCMB_Lecture Theatre A</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33">
         <v>197</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>maths_phys</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" t="s">
+        <v>51</v>
+      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
@@ -4987,46 +4855,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>JCMB_Lecture Theatre B</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34">
         <v>150</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>maths_phys</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" t="s">
+        <v>51</v>
+      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
@@ -5121,46 +4974,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>JCMB_Lecture Theatre C</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35">
         <v>104</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>maths_phys</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" t="s">
+        <v>51</v>
+      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
@@ -5255,49 +5093,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>MH_1.19</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36">
         <v>68</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s">
+        <v>44</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
@@ -5393,49 +5215,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>MH_G.04</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37">
         <v>20</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>geo</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>boardroom</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" t="s">
+        <v>44</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
@@ -5531,49 +5337,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>MH_G.05</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38">
         <v>24</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>geo</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>flex_seating</t>
-        </is>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s">
+        <v>48</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
@@ -5669,46 +5459,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>MH_G.07 - Teaching Studio</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39">
         <v>90</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
       <c r="J39" t="b">
         <v>1</v>
       </c>
@@ -5803,46 +5578,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>MH_G.09 - Teaching Studio</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40">
         <v>60</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" t="s">
+        <v>43</v>
+      </c>
       <c r="J40" t="b">
         <v>1</v>
       </c>
@@ -5937,49 +5697,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>MH_G.10</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41">
         <v>20</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>chem</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>flex_seating</t>
-        </is>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s">
+        <v>48</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
@@ -6075,49 +5819,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>MH_G.12</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42">
         <v>20</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s">
+        <v>44</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>
@@ -6213,49 +5941,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>MH_G.13</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43">
         <v>19</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>chem</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>flex_seating</t>
-        </is>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" t="s">
+        <v>48</v>
       </c>
       <c r="J43" t="b">
         <v>0</v>
@@ -6351,49 +6063,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>MH_G.30</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44">
         <v>20</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>eng</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>flex_seating</t>
-        </is>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s">
+        <v>48</v>
       </c>
       <c r="J44" t="b">
         <v>0</v>
@@ -6489,49 +6185,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>MH_G.31</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45">
         <v>46</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" t="s">
+        <v>44</v>
       </c>
       <c r="J45" t="b">
         <v>0</v>
@@ -6627,49 +6307,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>MH_G.32</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46">
         <v>28</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>chem</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>flex_seating</t>
-        </is>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" t="s">
+        <v>48</v>
       </c>
       <c r="J46" t="b">
         <v>0</v>
@@ -6765,49 +6429,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>MH_G.33</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47">
         <v>20</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" t="s">
+        <v>44</v>
       </c>
       <c r="J47" t="b">
         <v>0</v>
@@ -6903,49 +6551,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>MH_G.34</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48">
         <v>24</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>eng</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>tables_chairs</t>
-        </is>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" t="s">
+        <v>44</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
@@ -7041,46 +6673,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>MH_Lecture Theatre G.26</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49">
         <v>105</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s">
+        <v>51</v>
+      </c>
       <c r="J49" t="b">
         <v>1</v>
       </c>
@@ -7175,46 +6792,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Nucleus</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>NUC_1.14 - Oak Lecture Theatre</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50">
         <v>400</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s">
+        <v>51</v>
+      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
@@ -7309,46 +6911,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Nucleus</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>NUC_1.15 - Larch Lecture Theatre</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51">
         <v>300</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s">
+        <v>51</v>
+      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -7443,46 +7030,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Nucleus</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>NUC_2.03 - Hawthorn Teaching Studio</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52">
         <v>132</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s">
+        <v>43</v>
+      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -7577,46 +7149,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Nucleus</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>NUC_2.06 - Rowan</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53">
         <v>60</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s">
+        <v>43</v>
+      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
@@ -7711,49 +7268,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Nucleus</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>NUC_2.07 - Yew Lecture Theatre</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54">
         <v>150</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>retract_seating</t>
-        </is>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" t="s">
+        <v>116</v>
       </c>
       <c r="J54" t="b">
         <v>0</v>
@@ -7849,49 +7390,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Nucleus</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>NUC_B.01 - Alder Lecture Theatre</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55">
         <v>300</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>retract_seating</t>
-        </is>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" t="s">
+        <v>116</v>
       </c>
       <c r="J55" t="b">
         <v>0</v>
@@ -7987,46 +7512,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Nucleus</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>NUC_G.02 - Elm Lecture Theatre</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56">
         <v>112</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" t="s">
+        <v>51</v>
+      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
@@ -8121,49 +7631,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Swann Building</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>SB_7.15</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57">
         <v>50</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>bio</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>flex_seating</t>
-        </is>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" t="s">
+        <v>48</v>
       </c>
       <c r="J57" t="b">
         <v>0</v>
@@ -8259,49 +7753,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Swann Building</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>SB_7.20</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58">
         <v>58</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>bio</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>flex_seating</t>
-        </is>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I58" t="s">
+        <v>48</v>
       </c>
       <c r="J58" t="b">
         <v>0</v>
@@ -8397,46 +7875,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Swann Building</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>SB_Main Lecture Theatre</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59">
         <v>374</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>bio</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" t="s">
+        <v>51</v>
+      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -8531,46 +7994,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>JCMB_5205</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60">
         <v>54</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>locally_allocated</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>maths</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>boardroom</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s">
+        <v>77</v>
+      </c>
       <c r="J60" t="b">
         <v>1</v>
       </c>
@@ -8665,46 +8113,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>JCMB_1512</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61">
         <v>30</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>locally_allocated</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>bio</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>comp_lab</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" t="s">
+        <v>125</v>
+      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
@@ -8799,46 +8232,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>JCMB_3210</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62">
         <v>42</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>locally_allocated</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>comp_lab</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="E62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" t="s">
+        <v>125</v>
+      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
@@ -8933,46 +8351,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63">
         <v>74</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>locally_allocated</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>comp_lab</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="E63" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" t="s">
+        <v>125</v>
+      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
@@ -9067,46 +8470,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>MH_LG.12 - Open Access Computer Lab</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64">
         <v>101</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>locally_allocated</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>comp_lab</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+      <c r="E64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s">
+        <v>125</v>
+      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
@@ -9201,46 +8589,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>KB</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Murchison House</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>MH_LG.01 - Open Access Computer Lab</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65">
         <v>45</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>locally_allocated</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>comp_lab</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" t="s">
+        <v>125</v>
+      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
@@ -9335,46 +8708,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Gordon Aikman Lecture Theatre</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>GALT_ Gordon Aikman Lecture Theatre</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66">
         <v>458</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66" t="s">
+        <v>51</v>
+      </c>
       <c r="J66" t="b">
         <v>1</v>
       </c>
@@ -9469,46 +8827,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Appleton Tower</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>AT_M2 - Teaching Studio</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67">
         <v>96</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s">
+        <v>43</v>
+      </c>
       <c r="J67" t="b">
         <v>1</v>
       </c>
@@ -9603,46 +8946,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Appleton Tower</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>AT_2.05</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68">
         <v>24</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" t="s">
+        <v>43</v>
+      </c>
       <c r="J68" t="b">
         <v>1</v>
       </c>
@@ -9737,46 +9065,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Appleton Tower</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>AT_2.07</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69">
         <v>20</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>72</v>
+      </c>
+      <c r="H69" t="s">
+        <v>43</v>
+      </c>
       <c r="J69" t="b">
         <v>1</v>
       </c>
@@ -9871,46 +9184,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Appleton Tower</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>AT_2.11</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70">
         <v>28</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s">
+        <v>43</v>
+      </c>
       <c r="J70" t="b">
         <v>1</v>
       </c>
@@ -10005,46 +9303,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Appleton Tower</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>AT_2.12</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71">
         <v>54</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>72</v>
+      </c>
+      <c r="H71" t="s">
+        <v>43</v>
+      </c>
       <c r="J71" t="b">
         <v>1</v>
       </c>
@@ -10139,46 +9422,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Appleton Tower</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>AT_Lecture Theatre 2</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72">
         <v>194</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>72</v>
+      </c>
+      <c r="H72" t="s">
+        <v>51</v>
+      </c>
       <c r="J72" t="b">
         <v>1</v>
       </c>
@@ -10273,46 +9541,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Appleton Tower</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>AT_Lecture Theatre 3</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73">
         <v>193</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" t="s">
+        <v>51</v>
+      </c>
       <c r="J73" t="b">
         <v>1</v>
       </c>
@@ -10407,46 +9660,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Appleton Tower</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>AT_Lecture Theatre 5</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74">
         <v>303</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s">
+        <v>51</v>
+      </c>
       <c r="J74" t="b">
         <v>1</v>
       </c>
@@ -10541,46 +9779,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>40 George Square</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>40GS_LG.07 - Teaching Studio</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75">
         <v>60</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" t="s">
+        <v>43</v>
+      </c>
       <c r="J75" t="b">
         <v>1</v>
       </c>
@@ -10675,46 +9898,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>40 George Square</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>40GS_Lecture Theatre B</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76">
         <v>250</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>72</v>
+      </c>
+      <c r="H76" t="s">
+        <v>51</v>
+      </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
@@ -10809,46 +10017,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>40 George Square</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>40GS_Lecture Theatre C</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77">
         <v>250</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" t="s">
+        <v>51</v>
+      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
@@ -10943,46 +10136,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>40 George Square</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>40GS_13.07</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78">
         <v>15</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>boardroom</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>72</v>
+      </c>
+      <c r="H78" t="s">
+        <v>77</v>
+      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
@@ -11077,46 +10255,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>40 George Square</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>40GS_LG.09</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79">
         <v>96</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>72</v>
+      </c>
+      <c r="H79" t="s">
+        <v>51</v>
+      </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
@@ -11211,49 +10374,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>40 George Square</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>40GS_LG.11</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80">
         <v>78</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>MolGenProp</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>flex_seating</t>
-        </is>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>149</v>
+      </c>
+      <c r="H80" t="s">
+        <v>43</v>
+      </c>
+      <c r="I80" t="s">
+        <v>48</v>
       </c>
       <c r="J80" t="b">
         <v>0</v>
@@ -11349,49 +10496,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Chrystal MacMillan Building</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>CMB_Seminar Room 5</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81">
         <v>35</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>SPS</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>flex_seating</t>
-        </is>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>152</v>
+      </c>
+      <c r="H81" t="s">
+        <v>43</v>
+      </c>
+      <c r="I81" t="s">
+        <v>48</v>
       </c>
       <c r="J81" t="b">
         <v>0</v>
@@ -11487,49 +10618,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Chrystal MacMillan Building</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>CMB_Seminar Room 6</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82">
         <v>25</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>SPS</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>flex_seating</t>
-        </is>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>152</v>
+      </c>
+      <c r="H82" t="s">
+        <v>43</v>
+      </c>
+      <c r="I82" t="s">
+        <v>48</v>
       </c>
       <c r="J82" t="b">
         <v>0</v>
@@ -11625,46 +10740,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Old College</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>OC_Usha Kasera Lecture Theatre</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83">
         <v>150</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Law</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>theatre</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>156</v>
+      </c>
+      <c r="H83" t="s">
+        <v>51</v>
+      </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
@@ -11759,46 +10859,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Lister Learning and Teaching Centre</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>LLTC_2.14 - Teaching Studio</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" t="s">
+        <v>158</v>
+      </c>
+      <c r="D84">
         <v>36</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>centrally_allocated</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>EFI</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s">
+        <v>159</v>
+      </c>
+      <c r="H84" t="s">
+        <v>43</v>
+      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
@@ -11893,46 +10978,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>central</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Robson Building</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>ROB_Hugh Robson Building Computer Lab - 129 cap</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85">
         <v>129</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>locally_allocated</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>no priority</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>comp_lab</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" t="s">
+        <v>125</v>
+      </c>
       <c r="J85" t="b">
         <v>1</v>
       </c>
